--- a/hospitals_within_manila.xlsx
+++ b/hospitals_within_manila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,7 +614,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Healing lives, every day.</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">1556, Laong-Laan corner Forbes Streets, City of Manila 1008 Metro Manila </t>
@@ -652,7 +656,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Your path to recovery.</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr. A. Santos Avenue, Sucat, Paranaque City 1700  Metro Manila </t>
@@ -690,7 +698,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Quality healthcare close by.</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">7, Kamuning Road, Kamuning, Quezon City, Metro Manila </t>
@@ -724,7 +736,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Your trusted healing place.</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">Unit 1 &amp; 2, BSC Building, 144, Mindanao Avenue, Quezon City, Metro Manila </t>
@@ -750,7 +766,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Your health, our promise.</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">100, D. Tuazon Street, Quezon City, Metro Manila </t>
@@ -1214,7 +1234,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Your trusted healing place.</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve">412, Gomezville corner Guerrero Streets, Mandaluyong City, Metro Manila </t>
@@ -1248,7 +1272,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Expert care, trusted results.</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">1556, Laong Laan Road , Sampaloc, City of Manila 1008 Metro Manila </t>
@@ -1312,7 +1340,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Leading in healthcare excellence.</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t xml:space="preserve">1337 Rizal Avenue, Sta. Cruz, City of Manila 1014 Metro Manila </t>
@@ -1338,7 +1370,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Dedicated to your well-being.</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t xml:space="preserve">1068, Hermosa Street, City of Manila 1000  Metro Manila </t>
@@ -1368,7 +1404,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Your health, our mission.</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t xml:space="preserve">1416 Rizal Avenue, City of Manila, Metro Manila </t>
@@ -1394,7 +1434,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Your health, our passion.</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve">9821 Kamagong Street, San Antonio, Makati City, Metro Manila </t>
@@ -1424,7 +1468,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Your health, our focus.</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t xml:space="preserve">McArthur Highway corner 4th Street, Marulas, Valenzuela City 1440  Metro Manila </t>
@@ -1458,7 +1506,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Innovating for better health.</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr. Carlos S. Lanting College, 16 Tandang Sora Avenue, Quezon City, Metro Manila </t>
@@ -1492,7 +1544,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Your path to recovery.</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t xml:space="preserve">286, Blumentritt Street, Sta. Cruz, City of Manila 1014  Metro Manila </t>
@@ -1530,7 +1586,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Expert care, trusted results.</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t xml:space="preserve">286, Blumentritt Extension, City of Manila 1000  Metro Manila </t>
@@ -1620,7 +1680,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Healing lives, every day.</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t xml:space="preserve">1708, Bambang Cor. Felix Huertas, Sta. Cruz, City of Manila, Metro Manila </t>
@@ -1646,7 +1710,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Care that counts most.</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t xml:space="preserve">667, United Nations Avenue, Ermita, City of Manila 1000 Metro Manila </t>
@@ -1680,7 +1748,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Your trusted health partner.</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t xml:space="preserve">1635 Taft Avenue, City of Manila 1000 Metro Manila </t>
@@ -1706,7 +1778,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Committed to wellness.</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">B Banas Building, City of Manila, Metro Manila </t>
@@ -1732,7 +1808,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Healing lives, every day.</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve">1076 Don Chino Roces Avenue, Makati City, Metro Manila </t>
@@ -1758,7 +1838,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Your health, our mission.</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t xml:space="preserve">198, A. Mabini Street corner L. Lupa Street, Maypajo, Caloocan City 1410  Metro Manila </t>
@@ -1788,7 +1872,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Expertise in health.</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t xml:space="preserve">8th Avenue West Corner F. Roxas Street, ., Caloocan City, Metro Manila </t>
@@ -1814,7 +1902,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Your health, our focus.</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t xml:space="preserve">1447 Rizal Avenue, City of Manila 1000 Metro Manila </t>
@@ -1840,7 +1932,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Your path to recovery.</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimasalang corner Don Quijote Streets, Sampaloc, City of Manila, Metro Manila </t>
@@ -1878,7 +1974,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Your health, our commitment.</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">Quirino Avenue, Quezon City 1100 Metro Manila </t>
@@ -1904,7 +2004,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Your health, our passion.</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t xml:space="preserve">2 Espiritu Street, Valenzuela City, Metro Manila </t>
@@ -1930,7 +2034,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Leading in healthcare solutions.</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t xml:space="preserve">1072 G.G. Cruz Street, Paranaque City 1700 Metro Manila </t>
@@ -1956,7 +2064,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Innovation in patient care.</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t xml:space="preserve">Cabildo corner Victoria Streets, City of Manila, Metro Manila </t>
@@ -1986,7 +2098,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Health, hope, and healing.</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">Makati Townhouse, Makati City 1200 Metro Manila </t>
@@ -2012,7 +2128,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Your health, our priority.</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">393, Boni Avenue, Mandaluyong City 1550 Metro Manila </t>
@@ -2102,7 +2222,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Leading in patient outcomes.</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">1221 J. Nolasto Street, City of Manila, Metro Manila </t>
@@ -2136,7 +2260,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Leading in healthcare solutions.</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t xml:space="preserve">484 Quirino Avenue, Baclaran, Paranaque City 1700 Metro Manila </t>
@@ -2170,7 +2298,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Innovation in medicine.</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t xml:space="preserve">Lope de Vega Street, City of Manila, Metro Manila </t>
@@ -2204,7 +2336,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Your trusted healthcare team.</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t xml:space="preserve">849 General Luis Street, Bagbaguin, Caloocan City, Metro Manila </t>
@@ -2230,7 +2366,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Your journey to health.</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t xml:space="preserve">49, Bayan-Bayanan Avenue corner T. Bugallion Street, Marikina Heights, Marikina City 1810 Metro Manila </t>
@@ -2264,7 +2404,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Healthcare for generations.</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve">Quirino Highway, Lagro, Quezon City, Metro Manila </t>
@@ -2290,7 +2434,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Healthcare you can trust.</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t xml:space="preserve">444 J.P. Rizal Street, Lamuan, Marikina City, Metro Manila </t>
@@ -2316,7 +2464,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Experienced in caring.</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">Quirino Hiway, Novaliches, Quezon City, Metro Manila </t>
@@ -2342,7 +2494,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>In good hands, always.</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t xml:space="preserve">1508, Rizal Avenue, Sta.Cruz, City of Manila, Metro Manila </t>
@@ -2368,7 +2524,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Dedicated to your brighter health.</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve">1301 Rizal Avenue, City of Manila, Metro Manila </t>
@@ -2394,7 +2554,11 @@
           <t>Hospital</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Healing with expertise.</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve">G/F, Legasto Building, 1240 Rizal Avenue corner E. Remigio Street, Santa Cruz, City of Manila 1003 Metro Manila </t>
@@ -2408,6 +2572,318 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>New Era General Hospital</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Your path to recovery.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commonwealth Avenue corner Tandang Sora Avenue, Quezon City, Metro Manila </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 932 7387</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Fairview General Hospital</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Leading in healthcare excellence.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lot 20 Fairview Avenue, Diliman, Quezon City 1100 Metro Manila </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 938 4797</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sabater Hospital</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Your trusted health partner.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carucho Avenue, Pasig City 1600 Metro Manila </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 640 9403</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Taguig Doctors Hospital</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Innovation in patient well-being.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">184 M.L. Quezon Street, Taguig City, Metro Manila </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 838 2072</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Pasig General Hospital</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Medical Center</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Your trusted healing center.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">138 F. Legaspi Ectension, Pasig City, Metro Manila </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 642 7381</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Valenzuela General Hospital</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Your health, our passion.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Padriga Street, Karuhatan, Valenzuela City 1441  Metro Manila </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>+63 (2) 294 6717</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Cruz-Rabe Maternity &amp; General Hospital</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Your trusted healing place.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37 General Luna Street, Taguig City, Metro Manila </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 642 3433</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Mission Hospital</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Quality care, your comfort.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Km. 17, Ortigas Avenue Extension, Brgy. Rosario, Pasig City, Metro Manila </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 656 2816</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://facebook.com/profile.php?id=100064115407583</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>mission_hospital98@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Philippine Air Force General Hospital</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Innovation in health solutions.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1301 Sales Road, Col. Jesus Villamor Air Base, Pasay City 1300 Metro Manila </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 854 6701</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A. Zarate General Hospital</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Hospital</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Caring for life's moments.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naga Road, Atlas Compound, Pulang Lupa Dos, Las Pinas City 1742 Metro Manila </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>+63 (2) 8 874 6903</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>wrj969@yahoo.com</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
